--- a/ADC_Calibration/data.xlsx
+++ b/ADC_Calibration/data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Variable_Power_Supply_Version_2\ADC_Calibration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53ED2D0-4EED-4648-8283-4F979CA663E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,8 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -45,12 +50,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -73,34 +84,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,10 +125,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -152,71 +166,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,7 +258,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -267,11 +281,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -280,13 +294,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -296,7 +310,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -305,7 +319,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -314,7 +328,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -322,10 +336,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -390,22 +404,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -427,9 +443,9 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>0.0959</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -438,9 +454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>0.1088</v>
+        <v>0.10879999999999999</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -449,9 +465,9 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>0.119</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -460,7 +476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>0.1303</v>
       </c>
@@ -471,9 +487,9 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -482,31 +498,31 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>0.1549</v>
+        <v>0.15490000000000001</v>
       </c>
       <c r="B8" s="4">
-        <v>3.45714</v>
+        <v>3.4571399999999999</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>0.1683</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="B9" s="4">
-        <v>16.0541</v>
+        <v>16.054099999999998</v>
       </c>
       <c r="C9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>0.1775</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="B10" s="4">
         <v>28.9038</v>
@@ -515,317 +531,317 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>0.1902</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="B11" s="4">
-        <v>47.0968</v>
+        <v>47.096800000000002</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>0.2014</v>
       </c>
-      <c r="B12" s="4">
-        <v>56.0217</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="5">
+        <v>56.021700000000003</v>
+      </c>
+      <c r="C12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>0.2142</v>
       </c>
-      <c r="B13" s="4">
-        <v>72.4706</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="5">
+        <v>72.470600000000005</v>
+      </c>
+      <c r="C13" s="6">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4">
-        <v>0.2245</v>
-      </c>
-      <c r="B14" s="4">
-        <v>83.8333</v>
-      </c>
-      <c r="C14" s="3">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="B14" s="5">
+        <v>83.833299999999994</v>
+      </c>
+      <c r="C14" s="6">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="4">
-        <v>0.2383</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>0.23830000000000001</v>
+      </c>
+      <c r="B15" s="5">
         <v>102.727</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="6">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4">
-        <v>0.2502</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="B16" s="5">
         <v>114.786</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="6">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>0.3115</v>
       </c>
-      <c r="B17" s="4">
-        <v>186.975</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="5">
+        <v>186.97499999999999</v>
+      </c>
+      <c r="C17" s="6">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4">
-        <v>0.4045</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="B18" s="6">
         <v>302</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="6">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="4">
-        <v>0.5395</v>
-      </c>
-      <c r="B19" s="4">
-        <v>445.027</v>
-      </c>
-      <c r="C19" s="3">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="B19" s="5">
+        <v>445.02699999999999</v>
+      </c>
+      <c r="C19" s="6">
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="4">
-        <v>0.5955</v>
-      </c>
-      <c r="B20" s="4">
-        <v>522.162</v>
-      </c>
-      <c r="C20" s="3">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="B20" s="5">
+        <v>522.16200000000003</v>
+      </c>
+      <c r="C20" s="6">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="4">
-        <v>0.7083</v>
-      </c>
-      <c r="B21" s="4">
-        <v>658.538</v>
-      </c>
-      <c r="C21" s="3">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>0.70830000000000004</v>
+      </c>
+      <c r="B21" s="5">
+        <v>658.53800000000001</v>
+      </c>
+      <c r="C21" s="6">
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="4">
-        <v>0.8049</v>
-      </c>
-      <c r="B22" s="4">
-        <v>772.081</v>
-      </c>
-      <c r="C22" s="3">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="B22" s="5">
+        <v>772.08100000000002</v>
+      </c>
+      <c r="C22" s="6">
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="4">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>0.9</v>
       </c>
-      <c r="B23" s="4">
-        <v>890.379</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="5">
+        <v>890.37900000000002</v>
+      </c>
+      <c r="C23" s="6">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="4">
-        <v>0.9925</v>
-      </c>
-      <c r="B24" s="4">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>0.99250000000000005</v>
+      </c>
+      <c r="B24" s="5">
         <v>1000.75</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="6">
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="4">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>1.101</v>
       </c>
-      <c r="B25" s="4">
-        <v>1144.84</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="5">
+        <v>1144.8399999999999</v>
+      </c>
+      <c r="C25" s="6">
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="4">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>1.204</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="5">
         <v>1263.45</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="6">
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="4">
-        <v>1.303</v>
-      </c>
-      <c r="B27" s="4">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="B27" s="5">
         <v>1388.89</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="6">
         <v>101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="4">
-        <v>1.402</v>
-      </c>
-      <c r="B28" s="4">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="B28" s="5">
         <v>1502.31</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="6">
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="4">
-        <v>1.497</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="B29" s="5">
         <v>1628.38</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="6">
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="4">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>1.601</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>1745.14</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="6">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="4">
-        <v>1.701</v>
-      </c>
-      <c r="B31" s="4">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="B31" s="5">
         <v>1883.33</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="6">
         <v>133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="4">
-        <v>1.797</v>
-      </c>
-      <c r="B32" s="4">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="B32" s="5">
         <v>1996.51</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="6">
         <v>141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="4">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>1.907</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>2120.23</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="6">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="4">
-        <v>2.014</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="B34" s="5">
         <v>2248.4</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="6">
         <v>159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="4">
-        <v>2.102</v>
-      </c>
-      <c r="B35" s="4">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="B35" s="5">
         <v>2353.37</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="6">
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="4">
-        <v>2.209</v>
-      </c>
-      <c r="B36" s="4">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="B36" s="5">
         <v>2483.89</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="6">
         <v>175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="4">
-        <v>2.305</v>
-      </c>
-      <c r="B37" s="4">
-        <v>2604.22</v>
-      </c>
-      <c r="C37" s="3">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2.3050000000000002</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2604.2199999999998</v>
+      </c>
+      <c r="C37" s="6">
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="4">
-        <v>2.402</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2.4020000000000001</v>
+      </c>
+      <c r="B38" s="5">
         <v>2741.98</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="6">
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>2.506</v>
+        <v>2.5059999999999998</v>
       </c>
       <c r="B39" s="4">
         <v>2862.86</v>
@@ -834,9 +850,9 @@
         <v>200</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>2.603</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="B40" s="4">
         <v>3006.28</v>
@@ -845,7 +861,7 @@
         <v>208</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2.698</v>
       </c>
@@ -856,7 +872,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2.8</v>
       </c>
@@ -867,9 +883,9 @@
         <v>224</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>2.905</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="B43" s="4">
         <v>3569.34</v>
@@ -878,9 +894,9 @@
         <v>233</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>3.015</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="B44" s="4">
         <v>3824.91</v>
@@ -889,9 +905,9 @@
         <v>242</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>3.098</v>
+        <v>3.0979999999999999</v>
       </c>
       <c r="B45" s="4">
         <v>4019.82</v>
@@ -900,9 +916,9 @@
         <v>249</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>3.106</v>
+        <v>3.1059999999999999</v>
       </c>
       <c r="B46" s="4">
         <v>4054.5</v>
@@ -911,9 +927,9 @@
         <v>250</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>3.119</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="B47" s="4">
         <v>4087.48</v>
@@ -922,7 +938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>3.13</v>
       </c>
@@ -933,7 +949,7 @@
         <v>252</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>3.141</v>
       </c>
@@ -944,9 +960,9 @@
         <v>253</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
-        <v>3.154</v>
+        <v>3.1539999999999999</v>
       </c>
       <c r="B50" s="3">
         <v>4095</v>
@@ -955,7 +971,7 @@
         <v>254</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>3.165</v>
       </c>
